--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_10-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_10-22.xlsx
@@ -32,19 +32,28 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t xml:space="preserve">BONDIGA 120ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>HAEMOKION 10MG/ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -664,7 +673,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -690,11 +699,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -716,11 +725,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>45.5</v>
+        <v>30</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -736,13 +745,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -762,17 +771,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>122</v>
+        <v>45.5</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -780,7 +789,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -788,51 +797,103 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c t="s" r="B10" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" ht="26.25" customHeight="1">
-      <c r="K10" s="10">
-        <v>329.5</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="11">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c t="s" r="H10" s="8">
+        <v>9</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9">
+        <v>122</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c t="s" r="N10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" customHeight="1">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c t="s" r="B11" s="7">
         <v>19</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c t="s" r="F11" s="12">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c t="s" r="H11" s="8">
         <v>20</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c t="s" r="I11" s="14">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9">
+        <v>26</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c t="s" r="N11" s="7">
         <v>21</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+    </row>
+    <row r="12" ht="26.25" customHeight="1">
+      <c r="K12" s="10">
+        <v>414.5</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="11">
+        <v>22</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c t="s" r="F13" s="12">
+        <v>23</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c t="s" r="I13" s="14">
+        <v>24</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="35">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -858,10 +919,16 @@
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:N13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
